--- a/template/2023/Puskesmas.xlsx
+++ b/template/2023/Puskesmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\kcda-blanko-generator\template\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7086B37-B1A4-4926-A6DA-6EBE49C0FCC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9481223D-E29C-4010-B15F-FEE266DD868B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,6 +446,43 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -487,43 +524,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="P1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -832,85 +832,85 @@
       <c r="A1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
       <c r="P1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
       <c r="T1" s="18"/>
       <c r="U1" s="18"/>
       <c r="V1" s="18"/>
       <c r="W1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="26.1" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
       <c r="P2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
       <c r="W2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="35" t="s">
+      <c r="X2" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="26.1" customHeight="1" thickBot="1">
       <c r="A3" s="15"/>
@@ -925,10 +925,10 @@
       <c r="X3" s="15"/>
     </row>
     <row r="4" spans="1:26" ht="39" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
@@ -944,36 +944,36 @@
       <c r="G4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="44" t="s">
+      <c r="I4" s="45"/>
+      <c r="J4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="24" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="34"/>
+      <c r="Q4" s="47"/>
       <c r="R4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W4" s="34" t="s">
+      <c r="W4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="34"/>
+      <c r="X4" s="47"/>
       <c r="Y4" s="9" t="s">
         <v>15</v>
       </c>
@@ -982,10 +982,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
@@ -1001,30 +1001,30 @@
       <c r="G5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="31"/>
+      <c r="Q5" s="44"/>
       <c r="R5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="S5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="31" t="s">
+      <c r="W5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="31"/>
+      <c r="X5" s="44"/>
       <c r="Y5" s="12" t="s">
         <v>25</v>
       </c>
@@ -1033,10 +1033,10 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A6" s="38">
+      <c r="A6" s="33">
         <v>-1</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="3">
         <v>-2</v>
       </c>
@@ -1052,10 +1052,10 @@
       <c r="G6" s="3">
         <v>-6</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="38"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="3">
         <v>-2</v>
       </c>
@@ -1068,20 +1068,20 @@
       <c r="M6" s="3">
         <v>-5</v>
       </c>
-      <c r="P6" s="38">
+      <c r="P6" s="33">
         <v>-1</v>
       </c>
-      <c r="Q6" s="38"/>
+      <c r="Q6" s="33"/>
       <c r="R6" s="3">
         <v>-2</v>
       </c>
       <c r="S6" s="3">
         <v>-3</v>
       </c>
-      <c r="W6" s="38">
+      <c r="W6" s="33">
         <v>-1</v>
       </c>
-      <c r="X6" s="38"/>
+      <c r="X6" s="33"/>
       <c r="Y6" s="3">
         <v>-2</v>
       </c>
@@ -1090,592 +1090,554 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="41"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="41"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="29"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="41"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="41"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="29"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="41"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="29"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="41"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="29"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="41"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="29"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="47"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="5">
-        <f>SUM(C7:C28)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="5">
-        <f t="shared" ref="D29:F29" si="0">SUM(D7:D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-      <c r="H29" s="49" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="5">
-        <f>SUM(J7:J28)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="5">
-        <f t="shared" ref="K29:M29" si="1">SUM(K7:K28)</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="48" t="s">
+      <c r="I29" s="32"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="P29" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="5">
-        <f>SUM(R7:R28)</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="5">
-        <f>SUM(S7:S28)</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="48" t="s">
+      <c r="Q29" s="31"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="W29" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="5">
-        <f>SUM(Y7:Y28)</f>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="5">
-        <f>SUM(Z7:Z28)</f>
-        <v>0</v>
-      </c>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
     </row>
     <row r="30" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
       <c r="H30" t="s">
         <v>29</v>
       </c>
@@ -1699,6 +1661,98 @@
     </row>
   </sheetData>
   <mergeCells count="116">
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
@@ -1723,98 +1777,6 @@
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="P27:Q27"/>
     <mergeCell ref="W27:X27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="X2:Z2"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
